--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/07,25/28,07,25 ПОКОМ КИ Новороссийск/дв 28,07,25 нррсч пок ки.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/07,25/28,07,25 ПОКОМ КИ Новороссийск/дв 28,07,25 нррсч пок ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\заказы Краснодар\28,07,25 ПОКОМ КИ Новороссийск\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\07,25\28,07,25 ПОКОМ КИ Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAD1060-51AD-4A19-9C9E-A18D6998DDB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E129AB-465C-4F37-8EEA-4326F1005655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="148">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>ср нов</t>
-  </si>
-  <si>
-    <t>расчет</t>
   </si>
   <si>
     <t>заказ филиала</t>
@@ -472,6 +469,12 @@
   </si>
   <si>
     <t>с 29,07,25 снова доступен к заказу</t>
+  </si>
+  <si>
+    <t>заказ</t>
+  </si>
+  <si>
+    <t>31,07,</t>
   </si>
 </sst>
 </file>
@@ -946,7 +949,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,55 +1124,55 @@
         <v>15</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -1203,45 +1206,47 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
@@ -1376,10 +1381,10 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>327.11599999999999</v>
@@ -1400,7 +1405,7 @@
         <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1">
@@ -1484,10 +1489,10 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>64.37</v>
@@ -1508,7 +1513,7 @@
         <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1">
@@ -1589,10 +1594,10 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
         <v>147.25299999999999</v>
@@ -1613,7 +1618,7 @@
         <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1">
@@ -1697,10 +1702,10 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C9" s="1">
         <v>452</v>
@@ -1721,7 +1726,7 @@
         <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1">
@@ -1805,10 +1810,10 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>437</v>
@@ -1829,7 +1834,7 @@
         <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1">
@@ -1913,10 +1918,10 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1929,7 +1934,7 @@
         <v>40</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -1986,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="6"/>
@@ -2010,10 +2015,10 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>185</v>
@@ -2034,7 +2039,7 @@
         <v>180</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1">
@@ -2118,10 +2123,10 @@
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
         <v>346</v>
@@ -2142,7 +2147,7 @@
         <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1">
@@ -2226,10 +2231,10 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
         <v>226</v>
@@ -2250,7 +2255,7 @@
         <v>180</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1">
@@ -2268,7 +2273,7 @@
         <v>30.2</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" ref="Q12:Q19" si="7">13*P14-F14</f>
+        <f t="shared" ref="Q14:Q19" si="7">13*P14-F14</f>
         <v>237.59999999999997</v>
       </c>
       <c r="R14" s="5"/>
@@ -2334,10 +2339,10 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>28.952000000000002</v>
@@ -2358,7 +2363,7 @@
         <v>55</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1">
@@ -2439,10 +2444,10 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>397.02699999999999</v>
@@ -2463,7 +2468,7 @@
         <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
@@ -2544,10 +2549,10 @@
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1">
         <v>13.85</v>
@@ -2568,7 +2573,7 @@
         <v>60</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1">
@@ -2649,10 +2654,10 @@
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>817.66600000000005</v>
@@ -2675,7 +2680,7 @@
         <v>60</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1">
@@ -2737,7 +2742,7 @@
         <v>174.327</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="6"/>
@@ -2761,10 +2766,10 @@
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
         <v>47.51</v>
@@ -2785,7 +2790,7 @@
         <v>60</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1">
@@ -2869,10 +2874,10 @@
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="12">
         <v>50.845999999999997</v>
@@ -2893,10 +2898,10 @@
         <v>#N/A</v>
       </c>
       <c r="I20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>57</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="K20" s="12">
         <v>66.8</v>
@@ -2954,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG20" s="1">
         <f t="shared" si="6"/>
@@ -2978,10 +2983,10 @@
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1">
         <v>49.218000000000004</v>
@@ -3002,7 +3007,7 @@
         <v>70</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1">
@@ -3086,10 +3091,10 @@
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1">
         <v>6.0279999999999996</v>
@@ -3110,7 +3115,7 @@
         <v>#N/A</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1">
@@ -3191,10 +3196,10 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
         <v>175.88</v>
@@ -3215,7 +3220,7 @@
         <v>70</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1">
@@ -3296,10 +3301,10 @@
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1">
         <v>333.29</v>
@@ -3320,7 +3325,7 @@
         <v>35</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1">
@@ -3404,10 +3409,10 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1">
@@ -3428,7 +3433,7 @@
         <v>40</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1">
@@ -3490,7 +3495,7 @@
         <v>44.0974</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG25" s="1">
         <f t="shared" si="6"/>
@@ -3514,10 +3519,10 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1">
         <v>241.446</v>
@@ -3538,7 +3543,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1">
@@ -3622,10 +3627,10 @@
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <v>410.40499999999997</v>
@@ -3646,7 +3651,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1">
@@ -3730,10 +3735,10 @@
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
         <v>245.97300000000001</v>
@@ -3754,7 +3759,7 @@
         <v>40</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1">
@@ -3835,10 +3840,10 @@
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -3853,7 +3858,7 @@
         <v>#N/A</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -3932,10 +3937,10 @@
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1">
         <v>35.109000000000002</v>
@@ -3956,7 +3961,7 @@
         <v>40</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1">
@@ -4037,10 +4042,10 @@
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
         <v>99.408000000000001</v>
@@ -4061,7 +4066,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1">
@@ -4145,10 +4150,10 @@
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
         <v>199</v>
@@ -4169,7 +4174,7 @@
         <v>40</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1">
@@ -4253,10 +4258,10 @@
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1">
         <v>461</v>
@@ -4277,7 +4282,7 @@
         <v>45</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1">
@@ -4361,10 +4366,10 @@
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1">
         <v>367</v>
@@ -4385,7 +4390,7 @@
         <v>45</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1">
@@ -4469,10 +4474,10 @@
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1">
         <v>381</v>
@@ -4493,7 +4498,7 @@
         <v>50</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1">
@@ -4577,10 +4582,10 @@
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <v>370</v>
@@ -4601,7 +4606,7 @@
         <v>40</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1">
@@ -4685,10 +4690,10 @@
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1">
         <v>496</v>
@@ -4709,7 +4714,7 @@
         <v>730</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1">
@@ -4793,10 +4798,10 @@
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <v>461</v>
@@ -4817,7 +4822,7 @@
         <v>45</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1">
@@ -4901,10 +4906,10 @@
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1">
         <v>374</v>
@@ -4925,7 +4930,7 @@
         <v>40</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1">
@@ -5009,10 +5014,10 @@
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1">
         <v>43.088999999999999</v>
@@ -5035,7 +5040,7 @@
         <v>40</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1">
@@ -5116,10 +5121,10 @@
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <v>276</v>
@@ -5140,7 +5145,7 @@
         <v>40</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1">
@@ -5224,10 +5229,10 @@
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <v>447</v>
@@ -5248,7 +5253,7 @@
         <v>40</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1">
@@ -5332,10 +5337,10 @@
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1">
         <v>211.63</v>
@@ -5356,7 +5361,7 @@
         <v>50</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1">
@@ -5440,10 +5445,10 @@
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1">
         <v>264.93700000000001</v>
@@ -5464,7 +5469,7 @@
         <v>50</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1">
@@ -5548,10 +5553,10 @@
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1">
         <v>308.94200000000001</v>
@@ -5570,7 +5575,7 @@
         <v>#N/A</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -5627,7 +5632,7 @@
         <v>11.942</v>
       </c>
       <c r="AF45" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG45" s="1">
         <f t="shared" si="6"/>
@@ -5651,10 +5656,10 @@
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1">
         <v>4.9649999999999999</v>
@@ -5673,7 +5678,7 @@
         <v>40</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1">
@@ -5756,10 +5761,10 @@
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1">
         <v>923</v>
@@ -5782,7 +5787,7 @@
         <v>50</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1">
@@ -5866,10 +5871,10 @@
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1">
         <v>346.1</v>
@@ -5890,7 +5895,7 @@
         <v>40</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1">
@@ -5949,7 +5954,7 @@
         <v>25.9328</v>
       </c>
       <c r="AF48" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AG48" s="1">
         <f t="shared" si="6"/>
@@ -5973,10 +5978,10 @@
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1">
         <v>444</v>
@@ -5997,7 +6002,7 @@
         <v>50</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1">
@@ -6081,10 +6086,10 @@
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1">
         <v>221</v>
@@ -6105,7 +6110,7 @@
         <v>50</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1">
@@ -6189,10 +6194,10 @@
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="1">
         <v>227.786</v>
@@ -6213,7 +6218,7 @@
         <v>50</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1">
@@ -6297,10 +6302,10 @@
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" s="1">
         <v>63.938000000000002</v>
@@ -6321,7 +6326,7 @@
         <v>40</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1">
@@ -6402,10 +6407,10 @@
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1">
         <v>450</v>
@@ -6426,7 +6431,7 @@
         <v>730</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1">
@@ -6507,10 +6512,10 @@
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" s="1">
         <v>100.58799999999999</v>
@@ -6531,7 +6536,7 @@
         <v>50</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1">
@@ -6615,10 +6620,10 @@
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="1">
         <v>328</v>
@@ -6639,7 +6644,7 @@
         <v>730</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1">
@@ -6723,10 +6728,10 @@
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1">
         <v>446</v>
@@ -6747,7 +6752,7 @@
         <v>40</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1">
@@ -6831,10 +6836,10 @@
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1">
         <v>364</v>
@@ -6855,7 +6860,7 @@
         <v>40</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1">
@@ -6939,10 +6944,10 @@
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" s="1">
         <v>39.206000000000003</v>
@@ -6963,7 +6968,7 @@
         <v>40</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1">
@@ -7044,10 +7049,10 @@
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -7062,7 +7067,7 @@
         <v>#N/A</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1">
@@ -7123,7 +7128,7 @@
         <v>24.2</v>
       </c>
       <c r="AF59" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG59" s="1">
         <f t="shared" si="6"/>
@@ -7147,10 +7152,10 @@
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" s="1">
         <v>314</v>
@@ -7171,7 +7176,7 @@
         <v>#N/A</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1">
@@ -7255,10 +7260,10 @@
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1">
         <v>167</v>
@@ -7279,7 +7284,7 @@
         <v>#N/A</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1">
@@ -7363,10 +7368,10 @@
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1">
         <v>391</v>
@@ -7387,7 +7392,7 @@
         <v>40</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1">
@@ -7471,10 +7476,10 @@
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1">
         <v>901</v>
@@ -7497,7 +7502,7 @@
         <v>45</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1">
@@ -7581,10 +7586,10 @@
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" s="12">
         <v>334.952</v>
@@ -7605,10 +7610,10 @@
         <v>#N/A</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K64" s="12">
         <v>730.14700000000005</v>
@@ -7666,7 +7671,7 @@
         <v>44.0974</v>
       </c>
       <c r="AF64" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG64" s="1">
         <f t="shared" si="6"/>
@@ -7690,10 +7695,10 @@
     </row>
     <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="1">
         <v>9.7129999999999992</v>
@@ -7714,7 +7719,7 @@
         <v>60</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1">
@@ -7798,10 +7803,10 @@
     </row>
     <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12">
@@ -7820,7 +7825,7 @@
         <v>#N/A</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J66" s="12"/>
       <c r="K66" s="12">
@@ -7879,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG66" s="1">
         <f t="shared" si="6"/>
@@ -7903,10 +7908,10 @@
     </row>
     <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67" s="1">
         <v>206.286</v>
@@ -7927,7 +7932,7 @@
         <v>60</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1">
@@ -8008,10 +8013,10 @@
     </row>
     <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" s="1">
         <v>432.76</v>
@@ -8032,7 +8037,7 @@
         <v>55</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1">
@@ -8116,10 +8121,10 @@
     </row>
     <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="1">
         <v>96</v>
@@ -8140,7 +8145,7 @@
         <v>60</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1">
@@ -8224,10 +8229,10 @@
     </row>
     <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" s="1">
         <v>73.849999999999994</v>
@@ -8248,7 +8253,7 @@
         <v>55</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1">
@@ -8329,10 +8334,10 @@
     </row>
     <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" s="1">
         <v>237.876</v>
@@ -8353,7 +8358,7 @@
         <v>55</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1">
@@ -8437,10 +8442,10 @@
     </row>
     <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="1">
         <v>351</v>
@@ -8461,7 +8466,7 @@
         <v>40</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1">
@@ -8545,10 +8550,10 @@
     </row>
     <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>258</v>
@@ -8569,7 +8574,7 @@
         <v>60</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1">
@@ -8653,10 +8658,10 @@
     </row>
     <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" s="1">
         <v>215</v>
@@ -8677,7 +8682,7 @@
         <v>55</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1">
@@ -8761,10 +8766,10 @@
     </row>
     <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="1">
         <v>408.07</v>
@@ -8785,7 +8790,7 @@
         <v>55</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1">
@@ -8869,10 +8874,10 @@
     </row>
     <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="1">
         <v>3.0000000000000001E-3</v>
@@ -8893,7 +8898,7 @@
         <v>#N/A</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1">
@@ -8952,7 +8957,7 @@
         <v>7.1765999999999996</v>
       </c>
       <c r="AF76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG76" s="1">
         <f t="shared" si="22"/>
@@ -8976,10 +8981,10 @@
     </row>
     <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="1">
         <v>137</v>
@@ -9000,7 +9005,7 @@
         <v>55</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1">
@@ -9084,10 +9089,10 @@
     </row>
     <row r="78" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" s="1">
         <v>-2.6459999999999999</v>
@@ -9108,7 +9113,7 @@
         <v>55</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -9165,7 +9170,7 @@
         <v>11.690799999999999</v>
       </c>
       <c r="AF78" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG78" s="1">
         <f t="shared" si="22"/>
@@ -9189,10 +9194,10 @@
     </row>
     <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C79" s="1">
         <v>313</v>
@@ -9213,7 +9218,7 @@
         <v>40</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1">
@@ -9297,10 +9302,10 @@
     </row>
     <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C80" s="1">
         <v>341</v>
@@ -9321,7 +9326,7 @@
         <v>40</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1">
@@ -9405,10 +9410,10 @@
     </row>
     <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" s="1">
         <v>266</v>
@@ -9429,7 +9434,7 @@
         <v>40</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1">
@@ -9513,10 +9518,10 @@
     </row>
     <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82" s="1">
         <v>178</v>
@@ -9537,7 +9542,7 @@
         <v>45</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1">
@@ -9621,10 +9626,10 @@
     </row>
     <row r="83" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C83" s="1">
         <v>186</v>
@@ -9645,7 +9650,7 @@
         <v>60</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1">
@@ -9707,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG83" s="1">
         <f t="shared" si="22"/>
@@ -9731,10 +9736,10 @@
     </row>
     <row r="84" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" s="1">
         <v>205</v>
@@ -9755,7 +9760,7 @@
         <v>90</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1">
@@ -9839,10 +9844,10 @@
     </row>
     <row r="85" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" s="1">
         <v>9.1999999999999998E-2</v>
@@ -9861,7 +9866,7 @@
         <v>180</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1">
@@ -9922,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="AF85" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG85" s="1">
         <f t="shared" si="22"/>
@@ -9946,10 +9951,10 @@
     </row>
     <row r="86" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C86" s="1">
         <v>279</v>
@@ -9970,7 +9975,7 @@
         <v>90</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1">
@@ -10032,7 +10037,7 @@
         <v>0.8</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG86" s="1">
         <f t="shared" si="22"/>
@@ -10056,10 +10061,10 @@
     </row>
     <row r="87" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C87" s="1">
         <v>253</v>
@@ -10080,7 +10085,7 @@
         <v>90</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1">
@@ -10164,10 +10169,10 @@
     </row>
     <row r="88" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C88" s="1">
         <v>325</v>
@@ -10188,7 +10193,7 @@
         <v>90</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1">
@@ -10250,7 +10255,7 @@
         <v>6.8</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG88" s="1">
         <f t="shared" si="22"/>
@@ -10274,10 +10279,10 @@
     </row>
     <row r="89" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C89" s="1">
         <v>129</v>
@@ -10298,7 +10303,7 @@
         <v>90</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1">
@@ -10382,10 +10387,10 @@
     </row>
     <row r="90" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C90" s="1">
         <v>239</v>
@@ -10406,7 +10411,7 @@
         <v>90</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1">
@@ -10490,10 +10495,10 @@
     </row>
     <row r="91" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C91" s="1">
         <v>502</v>
@@ -10514,7 +10519,7 @@
         <v>50</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1">
@@ -10598,10 +10603,10 @@
     </row>
     <row r="92" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C92" s="1">
         <v>382</v>
@@ -10622,7 +10627,7 @@
         <v>90</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1">
@@ -10684,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG92" s="1">
         <f t="shared" si="22"/>
@@ -10708,10 +10713,10 @@
     </row>
     <row r="93" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C93" s="1">
         <v>379</v>
@@ -10732,7 +10737,7 @@
         <v>90</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1">
@@ -10794,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG93" s="1">
         <f t="shared" si="22"/>
@@ -10818,10 +10823,10 @@
     </row>
     <row r="94" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C94" s="15">
         <v>-133</v>
@@ -10842,10 +10847,10 @@
         <v>#N/A</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K94" s="15">
         <v>411</v>
@@ -10925,10 +10930,10 @@
     </row>
     <row r="95" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95" s="15">
         <v>-132</v>
@@ -10949,10 +10954,10 @@
         <v>#N/A</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K95" s="15">
         <v>444</v>
@@ -11032,10 +11037,10 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C96" s="15">
         <v>-47.561</v>
@@ -11056,10 +11061,10 @@
         <v>#N/A</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K96" s="15">
         <v>432.5</v>
@@ -11139,10 +11144,10 @@
     </row>
     <row r="97" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C97" s="15">
         <v>-7.9610000000000003</v>
@@ -11161,10 +11166,10 @@
         <v>#N/A</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J97" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K97" s="15">
         <v>6.3</v>
